--- a/Files/5000-6000/5020/5020_RequestList.xlsx
+++ b/Files/5000-6000/5020/5020_RequestList.xlsx
@@ -22,7 +22,7 @@
     <t>ЛАБОРАТОРИЯ ЗА ИЗПИТВАНЕ КЪМ РВС – РУСЕ ЕООД</t>
   </si>
   <si>
-    <t>ЗАЯВКА № 5020 / Дата 4.08.2015 г</t>
+    <t>ЗАЯВКА № 5020 / Дата 17.08.2015 г</t>
   </si>
   <si>
     <t>№</t>
@@ -49,7 +49,7 @@
     <t>234</t>
   </si>
   <si>
-    <t>Срок за изпитване: 0 дни</t>
+    <t>Срок за изпитване: 4 дни</t>
   </si>
   <si>
     <t>Приел пробата:………….</t>

--- a/Files/5000-6000/5020/5020_RequestList.xlsx
+++ b/Files/5000-6000/5020/5020_RequestList.xlsx
@@ -22,7 +22,7 @@
     <t>ЛАБОРАТОРИЯ ЗА ИЗПИТВАНЕ КЪМ РВС – РУСЕ ЕООД</t>
   </si>
   <si>
-    <t>ЗАЯВКА № 5020 / Дата 17.08.2015 г</t>
+    <t>ЗАЯВКА № 5020 / Дата 18.08.2015 г</t>
   </si>
   <si>
     <t>№</t>
@@ -49,7 +49,7 @@
     <t>234</t>
   </si>
   <si>
-    <t>Срок за изпитване: 4 дни</t>
+    <t>Срок за изпитване: 8 дни</t>
   </si>
   <si>
     <t>Приел пробата:………….</t>
